--- a/info/metricas/NN/TANH/NN4.xlsx
+++ b/info/metricas/NN/TANH/NN4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,34 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MeanAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MedianAE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>MaxError</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MSE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MeanAE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MedianAE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>varianzaExplicada</t>
@@ -471,10 +471,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Iteracion</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tecnica</t>
         </is>
@@ -485,34 +495,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1688.10400390625</v>
+        <v>0.7877977033636296</v>
       </c>
       <c r="C2" t="n">
-        <v>77853.89593976249</v>
+        <v>78907.67759745913</v>
       </c>
       <c r="D2" t="n">
-        <v>190.1239667871747</v>
+        <v>195.8723498070549</v>
       </c>
       <c r="E2" t="n">
-        <v>966590.2471459961</v>
+        <v>128.6210491943359</v>
       </c>
       <c r="F2" t="n">
-        <v>118.4578247070312</v>
+        <v>995815.0264190674</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7932046014911489</v>
+        <v>1675.940551757812</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7939029506090312</v>
-      </c>
-      <c r="I2" t="inlineStr">
+        <v>0.7885675436008293</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.27715478882419e+16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-51092.21165424939</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>TANH4</t>
         </is>
       </c>
     </row>
@@ -521,34 +537,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1685.764038085938</v>
+        <v>0.7702206096698947</v>
       </c>
       <c r="C3" t="n">
-        <v>86306.84041417031</v>
+        <v>80814.79166477037</v>
       </c>
       <c r="D3" t="n">
-        <v>193.9482099960171</v>
+        <v>191.0619952481418</v>
       </c>
       <c r="E3" t="n">
-        <v>986032.699619751</v>
+        <v>116.3264361572266</v>
       </c>
       <c r="F3" t="n">
-        <v>113.5755764770508</v>
+        <v>971359.1838415527</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7704983013728569</v>
+        <v>1689.984375</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7711513144658824</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>0.7705308131844373</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.873379684739914e+16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-85978.87662005152</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>TANH4</t>
         </is>
       </c>
     </row>
@@ -557,34 +579,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1682.9892578125</v>
+        <v>0.7742946286198237</v>
       </c>
       <c r="C4" t="n">
-        <v>84361.15127956189</v>
+        <v>80857.80575085171</v>
       </c>
       <c r="D4" t="n">
-        <v>192.3893099668249</v>
+        <v>186.1893737416001</v>
       </c>
       <c r="E4" t="n">
-        <v>978107.2518713379</v>
+        <v>107.7859118652344</v>
       </c>
       <c r="F4" t="n">
-        <v>113.0556359863281</v>
+        <v>946586.7761022949</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7795737541157937</v>
+        <v>1686.004516601562</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7797022874199767</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>0.7756896067655428</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.607687238833611e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-31267.41239037761</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>TANH4</t>
         </is>
       </c>
     </row>
@@ -593,34 +621,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1680.331298828125</v>
+        <v>0.7971188235598826</v>
       </c>
       <c r="C5" t="n">
-        <v>84156.28166141038</v>
+        <v>79999.27747308073</v>
       </c>
       <c r="D5" t="n">
-        <v>192.6236164122431</v>
+        <v>188.9804913532969</v>
       </c>
       <c r="E5" t="n">
-        <v>979298.4658398437</v>
+        <v>113.3537457275391</v>
       </c>
       <c r="F5" t="n">
-        <v>114.2765460205078</v>
+        <v>960776.8180401612</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7841666334727694</v>
+        <v>1679.38232421875</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7850128280901333</v>
-      </c>
-      <c r="I5" t="inlineStr">
+        <v>0.7991555894532694</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.221232650994682e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-82667.9075282273</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>TANH4</t>
         </is>
       </c>
     </row>
@@ -629,34 +663,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1672.04736328125</v>
+        <v>0.7834305055556461</v>
       </c>
       <c r="C6" t="n">
-        <v>77532.32256551074</v>
+        <v>79513.93864195363</v>
       </c>
       <c r="D6" t="n">
-        <v>185.2495054130247</v>
+        <v>193.0620037037281</v>
       </c>
       <c r="E6" t="n">
-        <v>941623.2360144043</v>
+        <v>126.9882128906249</v>
       </c>
       <c r="F6" t="n">
-        <v>109.3702087402344</v>
+        <v>981334.1648260497</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7939540215233393</v>
+        <v>1656.204345703125</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7949921844105325</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>0.7839135426261123</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.935588610425091e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-29315.69634172669</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>TANH4</t>
         </is>
       </c>
     </row>
@@ -665,34 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1683.919189453125</v>
+        <v>0.7830387504008179</v>
       </c>
       <c r="C7" t="n">
-        <v>85324.90440727375</v>
+        <v>80944.91345653951</v>
       </c>
       <c r="D7" t="n">
-        <v>194.0957075930664</v>
+        <v>190.3913469269021</v>
       </c>
       <c r="E7" t="n">
-        <v>986588.4816955565</v>
+        <v>113.5903668212891</v>
       </c>
       <c r="F7" t="n">
-        <v>116.8059289550781</v>
+        <v>967759.2164294434</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7793846997635222</v>
+        <v>1678.32763671875</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7807983960362598</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>0.7837192085566859</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.730325139684462e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-45882.71747128054</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>TANH4</t>
         </is>
       </c>
     </row>
@@ -701,34 +747,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1682.339599609375</v>
+        <v>0.7850001724810717</v>
       </c>
       <c r="C8" t="n">
-        <v>73808.34476185044</v>
+        <v>81599.68365775123</v>
       </c>
       <c r="D8" t="n">
-        <v>184.0244535674839</v>
+        <v>188.6394867703447</v>
       </c>
       <c r="E8" t="n">
-        <v>935396.2974835206</v>
+        <v>111.5858331298828</v>
       </c>
       <c r="F8" t="n">
-        <v>111.9240209960937</v>
+        <v>958854.5112536621</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7857508924291727</v>
+        <v>1682.02197265625</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7863318046626299</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>0.7854563787026528</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.202498031077893e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-67378.92716488709</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>TANH4</t>
         </is>
       </c>
     </row>
@@ -737,34 +789,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1650.135131835938</v>
+        <v>0.78822631201322</v>
       </c>
       <c r="C9" t="n">
-        <v>80102.89814179736</v>
+        <v>79932.11159809228</v>
       </c>
       <c r="D9" t="n">
-        <v>192.9802804155366</v>
+        <v>188.9232847461629</v>
       </c>
       <c r="E9" t="n">
-        <v>980918.7653521728</v>
+        <v>110.3993603515624</v>
       </c>
       <c r="F9" t="n">
-        <v>123.747080078125</v>
+        <v>960297.0563647461</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7733143961482644</v>
+        <v>1680.911254882812</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7735880323219145</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>0.7895521544555366</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.429156265482141e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-42323.56576330888</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>TANH4</t>
         </is>
       </c>
     </row>
@@ -773,34 +831,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1684.540405273438</v>
+        <v>0.7717299148480433</v>
       </c>
       <c r="C10" t="n">
-        <v>79102.51378826573</v>
+        <v>86390.43169844759</v>
       </c>
       <c r="D10" t="n">
-        <v>187.8120827447958</v>
+        <v>194.7997347483915</v>
       </c>
       <c r="E10" t="n">
-        <v>954648.8165917969</v>
+        <v>111.5421032714844</v>
       </c>
       <c r="F10" t="n">
-        <v>112.8929748535156</v>
+        <v>990167.0517260742</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7844978086602115</v>
+        <v>1682.4404296875</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7848250681358706</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>0.7717951756536973</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.550247747567291e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-84604.460638908</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>TANH4</t>
         </is>
       </c>
     </row>
@@ -809,34 +873,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1676.00830078125</v>
+        <v>0.7812572626662213</v>
       </c>
       <c r="C11" t="n">
-        <v>77543.98858253847</v>
+        <v>79967.54802622592</v>
       </c>
       <c r="D11" t="n">
-        <v>186.2848946123501</v>
+        <v>190.3791447552897</v>
       </c>
       <c r="E11" t="n">
-        <v>946886.1193145753</v>
+        <v>115.7723748779297</v>
       </c>
       <c r="F11" t="n">
-        <v>108.9474652099609</v>
+        <v>967697.1927911376</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7868152429591373</v>
+        <v>1684.20556640625</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7880246170698916</v>
-      </c>
-      <c r="I11" t="inlineStr">
+        <v>0.7813820714093642</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.364152593946211e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-73683.75727314547</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>TANH4</t>
         </is>
       </c>
     </row>
